--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/76.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/76.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1214651638733217</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.553496945857009</v>
+        <v>-1.553099506028881</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009624454057353281</v>
+        <v>0.0082944078998542</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.129448005405169</v>
+        <v>-0.131887735043185</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0994386258316397</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.556901549216383</v>
+        <v>-1.557831794517071</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01982409796338174</v>
+        <v>0.01818082200074382</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08904293456138034</v>
+        <v>-0.09193912974457361</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07839373364324972</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634426712997805</v>
+        <v>-1.634092233934529</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04123839982835714</v>
+        <v>-0.04275103220392711</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09620314754417716</v>
+        <v>-0.09914498928188814</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06101232064562263</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.778764266421078</v>
+        <v>-1.777524726363054</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09879240899871679</v>
+        <v>-0.09878926096047419</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1006324373515173</v>
+        <v>-0.10358844526132</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.04383701634481851</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.840949826855865</v>
+        <v>-1.836674003912852</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1310062843352567</v>
+        <v>-0.1301012233405088</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09951330975627251</v>
+        <v>-0.1023024716392173</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.02418831626378401</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.663701107625316</v>
+        <v>-1.659836890682523</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1437400990265792</v>
+        <v>-0.1402819790170816</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1007064162502184</v>
+        <v>-0.1026219975208414</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.001327537001963225</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.328897796409932</v>
+        <v>-1.328456284046407</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1571098174429073</v>
+        <v>-0.1544025045542701</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05449478886795154</v>
+        <v>-0.0571580292211923</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.02318794798032434</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8069546298057453</v>
+        <v>-0.8101105381439532</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1005726246249079</v>
+        <v>-0.09618425931472155</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06524848750467784</v>
+        <v>-0.06694370609831868</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0484399485057548</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2586403468432869</v>
+        <v>-0.2641730240546588</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1104574647066762</v>
+        <v>-0.1035443727259236</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01281341679710847</v>
+        <v>0.009578807502835561</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0739200621815202</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3259739650946081</v>
+        <v>0.3175025941837678</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1354292780661116</v>
+        <v>-0.1301610360671182</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08734007415245344</v>
+        <v>0.08444545298838148</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.100097175702158</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9904288229413591</v>
+        <v>0.9796153115780234</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2204782532473517</v>
+        <v>-0.2109365493340269</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1507777667982351</v>
+        <v>0.1492903187286059</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1282786335598018</v>
       </c>
       <c r="E13" t="n">
-        <v>1.68403608893372</v>
+        <v>1.669378822876168</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3828776760875501</v>
+        <v>-0.372260917114377</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2570822961935196</v>
+        <v>0.2549888507621897</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1596817376973174</v>
       </c>
       <c r="E14" t="n">
-        <v>2.351259646414839</v>
+        <v>2.335256594008575</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6257771588484297</v>
+        <v>-0.6146771760050173</v>
       </c>
       <c r="G14" t="n">
-        <v>0.365145004947297</v>
+        <v>0.3628595291831684</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1953414722465472</v>
       </c>
       <c r="E15" t="n">
-        <v>3.059368350571744</v>
+        <v>3.041339535556365</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9227717437606106</v>
+        <v>-0.9106022149242743</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5082264911117722</v>
+        <v>0.5051335435384163</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.23690557827427</v>
       </c>
       <c r="E16" t="n">
-        <v>3.739941164220614</v>
+        <v>3.721375608684872</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.158262318517528</v>
+        <v>-1.145889741214544</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6698027019515304</v>
+        <v>0.666686144091355</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2835356094800409</v>
       </c>
       <c r="E17" t="n">
-        <v>4.409155855890178</v>
+        <v>4.389354695344215</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.45355145371178</v>
+        <v>-1.438779284258372</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8418067894699056</v>
+        <v>0.8387657845275527</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3325645020312106</v>
       </c>
       <c r="E18" t="n">
-        <v>5.082152915508228</v>
+        <v>5.059014834425108</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.664596724505336</v>
+        <v>-1.650594250402245</v>
       </c>
       <c r="G18" t="n">
-        <v>1.000762258472698</v>
+        <v>0.9979935588383303</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.382085731484098</v>
       </c>
       <c r="E19" t="n">
-        <v>5.564544129632371</v>
+        <v>5.542278055142451</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.89654890427757</v>
+        <v>-1.880452984743149</v>
       </c>
       <c r="G19" t="n">
-        <v>1.165302347317866</v>
+        <v>1.162407726153794</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4319787844839467</v>
       </c>
       <c r="E20" t="n">
-        <v>5.9988506336199</v>
+        <v>5.974097608918325</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.045850126999864</v>
+        <v>-2.029865962823056</v>
       </c>
       <c r="G20" t="n">
-        <v>1.292160418399094</v>
+        <v>1.289207558527534</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4821817644441818</v>
       </c>
       <c r="E21" t="n">
-        <v>6.287163716068546</v>
+        <v>6.263383435183935</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.244031726524591</v>
+        <v>-2.229089563006084</v>
       </c>
       <c r="G21" t="n">
-        <v>1.406388560051007</v>
+        <v>1.403758374099313</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5323552018626488</v>
       </c>
       <c r="E22" t="n">
-        <v>6.617518849247134</v>
+        <v>6.593160903345006</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.340386881054134</v>
+        <v>-2.326490653241731</v>
       </c>
       <c r="G22" t="n">
-        <v>1.500315003076383</v>
+        <v>1.498175911090535</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5804323431835251</v>
       </c>
       <c r="E23" t="n">
-        <v>6.737348924951756</v>
+        <v>6.712769042353524</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.428082569387842</v>
+        <v>-2.414623131881599</v>
       </c>
       <c r="G23" t="n">
-        <v>1.600474561822109</v>
+        <v>1.59867230992822</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6236633183907672</v>
       </c>
       <c r="E24" t="n">
-        <v>6.868275835461547</v>
+        <v>6.845192845047673</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.480093670222541</v>
+        <v>-2.467917058300158</v>
       </c>
       <c r="G24" t="n">
-        <v>1.601030190571928</v>
+        <v>1.598763603037255</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6593806381482705</v>
       </c>
       <c r="E25" t="n">
-        <v>6.943822457207495</v>
+        <v>6.919908384697574</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.487763078391078</v>
+        <v>-2.474829363271351</v>
       </c>
       <c r="G25" t="n">
-        <v>1.644503024683132</v>
+        <v>1.642181346479214</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6861353618826893</v>
       </c>
       <c r="E26" t="n">
-        <v>6.932991631633825</v>
+        <v>6.912046159186676</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.512269769100169</v>
+        <v>-2.497355150916285</v>
       </c>
       <c r="G26" t="n">
-        <v>1.665985237650644</v>
+        <v>1.666104863103863</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7033105596280449</v>
       </c>
       <c r="E27" t="n">
-        <v>6.86123682195109</v>
+        <v>6.841745743172024</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.411193344216285</v>
+        <v>-2.398603552274562</v>
       </c>
       <c r="G27" t="n">
-        <v>1.625509335946397</v>
+        <v>1.624519277919099</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7100662547857068</v>
       </c>
       <c r="E28" t="n">
-        <v>6.729097916717897</v>
+        <v>6.712452664510143</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.337467862593682</v>
+        <v>-2.327848244733853</v>
       </c>
       <c r="G28" t="n">
-        <v>1.567166743196265</v>
+        <v>1.568547157965646</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7070007077480943</v>
       </c>
       <c r="E29" t="n">
-        <v>6.567476059323622</v>
+        <v>6.553405902398315</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.25275494049484</v>
+        <v>-2.242634784554437</v>
       </c>
       <c r="G29" t="n">
-        <v>1.514830607413018</v>
+        <v>1.517204228247939</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6948332884535021</v>
       </c>
       <c r="E30" t="n">
-        <v>6.379298925333882</v>
+        <v>6.368734108991712</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.202536647439302</v>
+        <v>-2.192927260703761</v>
       </c>
       <c r="G30" t="n">
-        <v>1.446093192385816</v>
+        <v>1.448052846191836</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6743296192203214</v>
       </c>
       <c r="E31" t="n">
-        <v>6.091473788812838</v>
+        <v>6.083449439332448</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.005632364431511</v>
+        <v>-1.999526744259985</v>
       </c>
       <c r="G31" t="n">
-        <v>1.365319253138029</v>
+        <v>1.367162429529072</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6466287508971198</v>
       </c>
       <c r="E32" t="n">
-        <v>5.826057962521753</v>
+        <v>5.82070629750933</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.876188179933985</v>
+        <v>-1.871460613503158</v>
       </c>
       <c r="G32" t="n">
-        <v>1.27915744643803</v>
+        <v>1.282626584581376</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6136309516081537</v>
       </c>
       <c r="E33" t="n">
-        <v>5.462069188759211</v>
+        <v>5.459596404719647</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.805191260458156</v>
+        <v>-1.801476575331887</v>
       </c>
       <c r="G33" t="n">
-        <v>1.199425507848543</v>
+        <v>1.203322779192884</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5769434689160968</v>
       </c>
       <c r="E34" t="n">
-        <v>5.150803759483757</v>
+        <v>5.151589195025286</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.722602477163509</v>
+        <v>-1.718570627184298</v>
       </c>
       <c r="G34" t="n">
-        <v>1.080602804381554</v>
+        <v>1.085343749974912</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5376156512083574</v>
       </c>
       <c r="E35" t="n">
-        <v>4.737874009182613</v>
+        <v>4.740575025994765</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.671246168283271</v>
+        <v>-1.667758928920029</v>
       </c>
       <c r="G35" t="n">
-        <v>1.009159650484837</v>
+        <v>1.013995037225473</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4978609637137441</v>
       </c>
       <c r="E36" t="n">
-        <v>4.267736533917796</v>
+        <v>4.271797503250752</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.58718803813889</v>
+        <v>-1.585240976485841</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9404127913429084</v>
+        <v>0.9460225954912241</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4586038657389084</v>
       </c>
       <c r="E37" t="n">
-        <v>3.89130199096313</v>
+        <v>3.898282765766099</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.553374172365548</v>
+        <v>-1.551479053343502</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8627491138788113</v>
+        <v>0.8679748573615296</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4210173951476642</v>
       </c>
       <c r="E38" t="n">
-        <v>3.541795767135676</v>
+        <v>3.551340619087244</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.460141084763105</v>
+        <v>-1.458142080479053</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7664632161906056</v>
+        <v>0.7723579177998766</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3866449064232873</v>
       </c>
       <c r="E39" t="n">
-        <v>3.107039093679456</v>
+        <v>3.118474342595706</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.434774192604223</v>
+        <v>-1.433193090396876</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7050418420392102</v>
+        <v>0.7103085100190822</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3563266572729593</v>
       </c>
       <c r="E40" t="n">
-        <v>2.690402528347649</v>
+        <v>2.704024089823386</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.431438846086187</v>
+        <v>-1.430496008632528</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6334066578096945</v>
+        <v>0.6390164619580102</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3302308328108757</v>
       </c>
       <c r="E41" t="n">
-        <v>2.340658627632879</v>
+        <v>2.353965385284355</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.396730937451946</v>
+        <v>-1.396512935803646</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5810107092998372</v>
+        <v>0.5868613383737119</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3085262834983452</v>
       </c>
       <c r="E42" t="n">
-        <v>1.963877800471527</v>
+        <v>1.977721298643367</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.366713605799181</v>
+        <v>-1.366786797688322</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5166207350856687</v>
+        <v>0.5221833186603454</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2909016332791193</v>
       </c>
       <c r="E43" t="n">
-        <v>1.726873019319918</v>
+        <v>1.74050087687214</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.346609446572368</v>
+        <v>-1.346032568564411</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4416360381660253</v>
+        <v>0.4474803711634147</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2757075901216737</v>
       </c>
       <c r="E44" t="n">
-        <v>1.516643877440756</v>
+        <v>1.528896042280961</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.347706537899915</v>
+        <v>-1.347438954649294</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3757948183220175</v>
+        <v>0.3808033471659963</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2619478627103442</v>
       </c>
       <c r="E45" t="n">
-        <v>1.295110130232412</v>
+        <v>1.307848666981098</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.277020487200543</v>
+        <v>-1.276926833062826</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3169863159119812</v>
+        <v>0.32292666407577</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2486351824475946</v>
       </c>
       <c r="E46" t="n">
-        <v>1.071986623711554</v>
+        <v>1.084980151557891</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.216478202728394</v>
+        <v>-1.216059513642128</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2829418563373686</v>
+        <v>0.2881329713994183</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2347945458353404</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9472723666735369</v>
+        <v>0.960396538106942</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.164697695694966</v>
+        <v>-1.165228140138844</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2062682369005695</v>
+        <v>0.2119205395651603</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2201683051333123</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7858031891340271</v>
+        <v>0.7968559514038006</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.091678948657827</v>
+        <v>-1.092354989870425</v>
       </c>
       <c r="G48" t="n">
-        <v>0.151039053972371</v>
+        <v>0.1554935280856519</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2050754070260777</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6210269974206647</v>
+        <v>0.6327927903523873</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.033980129728307</v>
+        <v>-1.033758980041765</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1039774562646017</v>
+        <v>0.1087262719535659</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1901097283614973</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5442054201864632</v>
+        <v>0.5556390950835914</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9794222659553437</v>
+        <v>-0.978460540272229</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09165446056393863</v>
+        <v>0.09507637813364632</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1762425061262143</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4256644661421872</v>
+        <v>0.4369895337199456</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9617019586877406</v>
+        <v>-0.9605969972645875</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0854056046523749</v>
+        <v>0.08775246716223423</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1650970571052184</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2913392483495078</v>
+        <v>0.2996296070613985</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9671535739143654</v>
+        <v>-0.9649885106130164</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02644442238757243</v>
+        <v>0.02950903761674487</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.157027379537586</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2250667472662636</v>
+        <v>0.2345911369692541</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9297171031333499</v>
+        <v>-0.9298784400932832</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03654647710808025</v>
+        <v>0.03889963569442478</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1521316711138128</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1282236468091175</v>
+        <v>0.1341057562654182</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9009471816342159</v>
+        <v>-0.8997462050446635</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.001779314476470202</v>
+        <v>0.0001677471765787488</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1502498552613015</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0847272024110943</v>
+        <v>0.08827661552962734</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9170745815510628</v>
+        <v>-0.9151849715959413</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01387092936630208</v>
+        <v>-0.01152406685644276</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1506817184823199</v>
       </c>
       <c r="E56" t="n">
-        <v>0.008009510438898776</v>
+        <v>0.01061923414201532</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9306119330038093</v>
+        <v>-0.9280525779125745</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04625479876794244</v>
+        <v>-0.04453911792572469</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1526656113984647</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08659533482775776</v>
+        <v>-0.08467030944240703</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9641298831823468</v>
+        <v>-0.9608653675247691</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08429097083417356</v>
+        <v>-0.08299870113558569</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1556867258874328</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1230228593520196</v>
+        <v>-0.1218643812787423</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9656063131181268</v>
+        <v>-0.9617586233761073</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1091242705109345</v>
+        <v>-0.1080869919099973</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1589280904235979</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1949665513293101</v>
+        <v>-0.1946328592755944</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.972158167710541</v>
+        <v>-0.9690266566687132</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1209703384178435</v>
+        <v>-0.120753123779104</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1616626979971945</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2701904991553913</v>
+        <v>-0.2711081523031096</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.01434266717096</v>
+        <v>-1.010025132721232</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1285665546972406</v>
+        <v>-0.1286751620166104</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1636373782618479</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3434343309268762</v>
+        <v>-0.3455073141096292</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9954804090308532</v>
+        <v>-0.9914218007265795</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1665948566678652</v>
+        <v>-0.1669364188171875</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1647052751117655</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4704230455951731</v>
+        <v>-0.4717814240968556</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.037593290621253</v>
+        <v>-1.032532819146271</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.187773283944966</v>
+        <v>-0.1876568065299897</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1647326047352695</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5244543999720618</v>
+        <v>-0.5245220827942777</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.069903181124192</v>
+        <v>-1.063030226631033</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2228282637954536</v>
+        <v>-0.2227291005908117</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1639087694270896</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.667290339153614</v>
+        <v>-0.6679718894331372</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.112584283617382</v>
+        <v>-1.105336712573353</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2736234348589481</v>
+        <v>-0.2730347517075816</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1624083850534972</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8349469858589568</v>
+        <v>-0.8361487494580698</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.182679290136705</v>
+        <v>-1.174798176396352</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3383754334710158</v>
+        <v>-0.3373224146788656</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1602998678710407</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9471682531312106</v>
+        <v>-0.9478954499652515</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.210806224824787</v>
+        <v>-1.202649657738207</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3714660374581201</v>
+        <v>-0.3710017018173364</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1582174856216133</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.041599956294524</v>
+        <v>-1.041330012015221</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.274965605237685</v>
+        <v>-1.265852034525354</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4344205062336625</v>
+        <v>-0.4320327192266493</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1563094506620552</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.151888328085821</v>
+        <v>-1.149489522944958</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.344560860685995</v>
+        <v>-1.334398993238878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4530080980371023</v>
+        <v>-0.4528931946412473</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1546097861192006</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.324551929616021</v>
+        <v>-1.320167499353638</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.402901879417005</v>
+        <v>-1.392199336401721</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4884109361133974</v>
+        <v>-0.4879686367403118</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1536269263276405</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.384992689854846</v>
+        <v>-1.379986522039549</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.494634139787288</v>
+        <v>-1.482504748438545</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5300169835467384</v>
+        <v>-0.5288978559514936</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1535805788345149</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.448675929483551</v>
+        <v>-1.443081865526448</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.536776927740993</v>
+        <v>-1.522923198444865</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5907646775142171</v>
+        <v>-0.5886964163888281</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1550267930880311</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.527515399231259</v>
+        <v>-1.521972490895599</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.582230664916353</v>
+        <v>-1.568875899681678</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5847723867194254</v>
+        <v>-0.5814575024499662</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.158314395440051</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.589017835367402</v>
+        <v>-1.580105739102597</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.585558141338783</v>
+        <v>-1.572397767465588</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6171531080828232</v>
+        <v>-0.6132747249679383</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1639834015041741</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.643168815197509</v>
+        <v>-1.633296567268711</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.617903447271951</v>
+        <v>-1.605339626645729</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6218011865480241</v>
+        <v>-0.6181431661101213</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1715451528902323</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.646955905203359</v>
+        <v>-1.635644216788132</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.603768755562671</v>
+        <v>-1.591655104405141</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6428710065057551</v>
+        <v>-0.6392759468327044</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1810678054242959</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.560632761543426</v>
+        <v>-1.55001206752245</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.676461680641701</v>
+        <v>-1.663498059158668</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.626228902336243</v>
+        <v>-0.6225283833820651</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1923927137461035</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.502978015149303</v>
+        <v>-1.495050467844872</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.684815000118444</v>
+        <v>-1.672274789779041</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5998388977485156</v>
+        <v>-0.5960974542971839</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2050969203561839</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.329285005113772</v>
+        <v>-1.321091448577841</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.625276152836124</v>
+        <v>-1.613422214833608</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5598147395320817</v>
+        <v>-0.5563597675608267</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2182739509206394</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.205777233732232</v>
+        <v>-1.198358094603981</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.593554945484551</v>
+        <v>-1.582696574576258</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5698475374112524</v>
+        <v>-0.5649177095233385</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2304660427172335</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.020987388891531</v>
+        <v>-1.014559881809699</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.553053072464802</v>
+        <v>-1.542928194467036</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5576819436227193</v>
+        <v>-0.5528339647291132</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2403224170780089</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8752214131156775</v>
+        <v>-0.8688985783054126</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.5117602548366</v>
+        <v>-1.502678164506695</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5228866769272463</v>
+        <v>-0.5185219219038795</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2464734321758462</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6559023108110036</v>
+        <v>-0.6519468007591749</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.49929559741502</v>
+        <v>-1.490657380477322</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4713706051061961</v>
+        <v>-0.4678573944274529</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2482115955596411</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4453253107060336</v>
+        <v>-0.4423755988727161</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.393393229905228</v>
+        <v>-1.387573294204218</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3852434268268651</v>
+        <v>-0.3818813219837668</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2455738085000892</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2485209779124447</v>
+        <v>-0.2465676201829106</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.357126255331339</v>
+        <v>-1.353801139937591</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3624799622946145</v>
+        <v>-0.3593602563961966</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2386383989221349</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05330797845049082</v>
+        <v>-0.05177330980722265</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.228523384054148</v>
+        <v>-1.226029350756447</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3385186692110542</v>
+        <v>-0.3345883434651663</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2277279347979402</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2163136269327105</v>
+        <v>0.2168975880267131</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.116820756082363</v>
+        <v>-1.115544226574988</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2734172383540577</v>
+        <v>-0.2688588789787709</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.213897493562037</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4551710285900898</v>
+        <v>0.4551175119399656</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9790476494044741</v>
+        <v>-0.9788996916070718</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.207314731335914</v>
+        <v>-0.2035512516168841</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1974211500430704</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6270240102728203</v>
+        <v>0.6275528806975773</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8269131922638381</v>
+        <v>-0.8271020745583941</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1838272180078651</v>
+        <v>-0.1797300462351195</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.178752141460321</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8161801841560091</v>
+        <v>0.8162431449208611</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7117060107184768</v>
+        <v>-0.7110968653185334</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1230323034667474</v>
+        <v>-0.1200353710597909</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1576017427114538</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9571934091950951</v>
+        <v>0.9568329588163172</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5197449347611302</v>
+        <v>-0.5213976548384959</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1056897607882564</v>
+        <v>-0.1025527406795041</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1342869390774746</v>
       </c>
       <c r="E91" t="n">
-        <v>1.080299018691143</v>
+        <v>1.079280628319662</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3206818845284747</v>
+        <v>-0.3220575772404916</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1256908217626242</v>
+        <v>-0.1220076170187806</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1085047579080656</v>
       </c>
       <c r="E92" t="n">
-        <v>1.145444522083536</v>
+        <v>1.14413021611725</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.184282109533921</v>
+        <v>-0.1857034488004556</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08699985774193204</v>
+        <v>-0.08335600347612095</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08171648987581781</v>
       </c>
       <c r="E93" t="n">
-        <v>1.177500995507946</v>
+        <v>1.177307391156026</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08442161442124152</v>
+        <v>-0.08598776344693569</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08329933878775413</v>
+        <v>-0.07988056925628903</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05478649726387064</v>
       </c>
       <c r="E94" t="n">
-        <v>1.167672820114544</v>
+        <v>1.166328607784954</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07115758356636107</v>
+        <v>0.0689256244523567</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04474059237325118</v>
+        <v>-0.04192624618436554</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02951281832617974</v>
       </c>
       <c r="E95" t="n">
-        <v>1.184325942417906</v>
+        <v>1.182500080237197</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1529845416062986</v>
+        <v>0.1501638993409278</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07781545616914252</v>
+        <v>-0.07487676246967415</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.006864680973516644</v>
       </c>
       <c r="E96" t="n">
-        <v>1.104483822489928</v>
+        <v>1.102964894037873</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2360612708285489</v>
+        <v>0.2321419632165102</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1024882058955308</v>
+        <v>-0.1004136486936565</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01210077039244124</v>
       </c>
       <c r="E97" t="n">
-        <v>1.056512441730047</v>
+        <v>1.054562232038756</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2854272325299024</v>
+        <v>0.2811569186538136</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06693898404095477</v>
+        <v>-0.06437333287323466</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03026195919419639</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9355758305831515</v>
+        <v>0.9345180897336375</v>
       </c>
       <c r="F98" t="n">
-        <v>0.264423521375266</v>
+        <v>0.2604223647689197</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1238838478113711</v>
+        <v>-0.1215794838177869</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04893331880506892</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9063069450225651</v>
+        <v>0.9044590465741582</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2404826905402826</v>
+        <v>0.2376526041601839</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1093902797424343</v>
+        <v>-0.1072464656992228</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07266288920085985</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8476794548114784</v>
+        <v>0.846415517457074</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2332374805249355</v>
+        <v>0.2299446325231745</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1101536790162652</v>
+        <v>-0.1082774482236747</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09980764036846369</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7923825890610641</v>
+        <v>0.791340588402763</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2063123094359659</v>
+        <v>0.2042046978325443</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09498957880165433</v>
+        <v>-0.09324871365349577</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1353160645961295</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7815187090858466</v>
+        <v>0.7798895992953004</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1728061644008382</v>
+        <v>0.1713250124076942</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07732908426066061</v>
+        <v>-0.07572830681429782</v>
       </c>
     </row>
   </sheetData>
